--- a/Database/large stonk base.xlsx
+++ b/Database/large stonk base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Documents\Python Projects\Animal Crossing Turnips\turnipCalculator\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F53D266-0B41-42E0-A07C-5D0F8043F829}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F8ABC0-97AD-4F01-A01D-9E8503BB43CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7A10C858-B308-442D-B7FB-9B0180F9C076}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="32">
   <si>
     <t>Buy Price</t>
   </si>
@@ -1298,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079A2DFC-7417-4DF2-8121-C7480C161AD9}">
-  <dimension ref="A1:O259"/>
+  <dimension ref="A1:O260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="O243" sqref="O243"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="C260" sqref="C260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13473,8 +13473,8 @@
       <c r="K259" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L259" s="9" t="s">
-        <v>30</v>
+      <c r="L259" s="9">
+        <v>73</v>
       </c>
       <c r="M259" s="9" t="s">
         <v>30</v>
@@ -13484,6 +13484,17 @@
       </c>
       <c r="O259" s="10" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A260" s="10">
+        <v>94</v>
+      </c>
+      <c r="B260" s="9">
+        <v>89</v>
+      </c>
+      <c r="C260" s="9">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
